--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/63_Ordu_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/63_Ordu_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{555C8372-F127-4A06-A7AE-15A0BB633F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4420CC82-46BE-421E-BC9A-C4D422AF2722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="715" xr2:uid="{49FE8C27-1B74-4A96-B111-EC405953B45D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="715" xr2:uid="{EDFC8AF9-2880-4074-AF43-83C6B48F0F2B}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="113" r:id="rId1"/>
@@ -975,14 +975,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{10C5E14C-B3D5-4AB8-A958-DCDB4FD96848}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{748B8509-33EF-4B08-A118-161710AFEEE5}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{49182707-62E7-423C-B07A-F32A5564FFBE}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{C87B0587-D597-47B1-B2C4-1F18F0BC5A59}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{DD0D33FD-2934-4B7F-92EA-CCC8E3D32AC4}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{DCBDD8C8-EB36-42A1-A663-066C9CF63CF5}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{C8577713-46F9-4331-B2B6-148D72820506}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{C287FE54-293B-42B3-95EA-0FD1C1E2FCE1}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{541AD422-B840-48FB-8EDB-DCABE46A9C00}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{1BA9407B-F784-4D35-B565-8EE0C3354F4B}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{C2FD611D-4ABB-46A3-B957-AAEB73772EFC}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{77A74093-FA4F-42C5-AACF-D32D6F3DF319}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{42BC3E6F-3638-4E77-BECE-5CC82FD359D1}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{7D044C6E-4593-4166-A7C7-60BF39126812}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{E8735FDD-8055-4B75-BF3F-2B1A042F6039}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{CD23C53D-3F79-4DA6-B339-71775A2806BE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1352,7 +1352,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D2571E-F322-41F5-BFE5-E78E657F5841}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C61A6F-D15D-4F54-961D-9257E53FDB5D}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2634,17 +2634,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{25DF8D64-DD1F-4996-8A5F-447BDDB00614}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{621A2A45-C076-4890-B673-9342D7A8FF45}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{115C44EF-7851-4B90-B49D-56A2F32ACD53}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{96FD936E-7573-4E66-92CA-D4E719CAE8D0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3902C78E-8720-474E-A9F3-702F6C841BCD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0055E52E-9883-404A-A8D9-8501D7C4A951}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DD060EE9-A2D5-40F5-93D9-EEB5316A2F6A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{428405E1-61A4-4589-9761-BB9F2D0C8235}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C8CA68F3-9617-42DF-9AB6-0384EA4A7C58}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{350EEEC5-E189-4F27-8DA4-32386C0EECCF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1160C136-6F29-41BF-A933-6082334777E4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{05883195-A43F-416A-AF43-9F67D01A7BCF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D9218CF0-2017-496D-8960-B1414A192248}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2470E0EA-3C37-47E9-9F37-344D2C9CE086}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F01A3B3C-E3AA-45DC-84A8-2C9FF7D6E0BA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{10DA5D14-FDA4-495C-B8FD-62586AC25CEA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E1B71D41-4916-4BFA-88DF-09CFB77746D9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{33A94B73-7270-4E0F-BE94-41CBA0CFA414}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D4B27C3A-36B5-46C8-8B99-851EFA6DD421}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{DD1D5FC1-1C31-42E3-B59A-06E85B0AE8E4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{50A33006-1BF8-4544-AA47-0D1545B5C39A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C91D7A98-2333-4D5B-BE29-26F8FF6376BA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2657,7 +2657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1081AE1-1A25-46F6-BBC5-C67040F120A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89396B77-C457-4B7E-B285-A581B0FA4D3B}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3936,17 +3936,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C5A0F770-4CAC-4826-86AC-7B62BB6C84EC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0055B088-D2A8-43F5-A24B-012683B523A9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D360881C-7EFE-49DB-9CB4-13EF8D3F830E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{665BCC10-4BE7-4170-AC9A-08CAEDC7FC16}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3D2B7198-D572-4B7B-BB0E-1A5375B9A0A2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D085FD63-723A-4269-8940-55FB6F1D0DA2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9E1A0E2F-8F4E-42D6-B6CE-BFDE0004156F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{95261297-1343-43BC-A674-DB4E299E9AD3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E4779865-0984-427E-971C-B5C6FAB380C1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{0E7A7B20-1AD5-4861-B1EA-80373882DE3F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5402C965-071C-45FA-B960-80BFF6735965}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{38A14000-0420-4071-B3BF-AE1434FE167F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{986DDBDA-910B-462E-BB67-A6D6C161E130}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BAC1B73F-5C53-4513-9084-809AAE738A33}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E49DB6B9-7303-45D9-8765-09130ACB723A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{467B87DD-E31F-430B-BD6B-21821BF291A1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{17D381A2-419D-400E-9958-0B9E35AB4673}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{91DA4B48-6E64-4A89-AACE-2817CEE47931}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{26B5FE64-E014-4A35-987E-21F77F86A13E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{BF6E6BFC-2C05-4A38-BEA0-658758C5CE31}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F99614DC-F642-4CD3-8056-D65EAAA6A575}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B65A5212-6122-47BF-B6D8-EAC21AE882D0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3959,7 +3959,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D63A9EA4-E545-4FFA-B270-A2BA4073CA4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD0EF4F-DFB5-4D3E-9EBE-7619F3C06904}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5228,17 +5228,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2C48DC87-DA89-429A-9143-DD03313DF910}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4B8122B0-3E8F-43F9-A3BB-AB9182869A2B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FEED8225-3509-49F5-9435-07E24735F358}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9F41DAE4-1E62-4113-86D5-D63A593ED887}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8515E547-33C8-4D64-876B-DBE437A4EC1B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A3750104-6D2D-4BAD-910E-51F3F8B442A2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{01C268A6-906F-4F35-8FF8-323AF9197602}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8D8413E7-5BA1-46D6-9EAD-A8BF2A07A466}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{20C0CEEA-ABDF-415A-BE59-6F38D67567BB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{FD384181-622D-4861-A230-92C622C9DE1E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A379182F-F7E7-4A58-B60D-7A2C2FC66E87}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E62AE7EB-D5FC-4DBA-B8C3-CCCDF709EEB6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0E18FED4-2B81-4F52-B4C3-3041173DEBEB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{76857A03-51F1-4550-887C-CE333B257E09}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{43E1CD48-6CC8-44F9-A5F2-FF62006C0892}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B31A18BD-C871-4F2F-88A0-7F50AA211183}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{14AE84D0-9EC7-4DA8-BC8B-A6DBF964D620}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F4074FD2-642F-4A64-8B90-7745477C804A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DB9E259E-DADA-4D7C-9D5D-D0D0B4A9F0C5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{98227142-6BB6-4875-A1C7-2696563B2336}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{DF3A324B-63CC-4D4A-9D4C-A2DC2BB20A90}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BEEFCB02-4DEA-4FE6-9F4D-D8131348C9EE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5251,7 +5251,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4526B5AD-83BD-469E-8C47-16B8ABBE8D12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5812E3B2-78F5-4FB6-97A8-8C8F00907186}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6512,17 +6512,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{805DA17B-456F-410B-9DCA-BCA96A8275C0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7C66639C-4C05-4E3A-B9C5-DCBEC08C9892}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B77B57FC-7087-4EB9-9C70-90BA39F14B08}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D920A619-D813-454E-8ECE-51021E6EB97F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A59CC236-51DE-48D5-9757-814A6D61107A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4F3A0DE7-5AB8-4824-85B5-E906783D30B6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0B7C5F0D-62C4-43E0-AD52-C909B9E89D6E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A20B29CC-F9C7-48D4-B222-E25BD91258D3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{87A4B20C-78E0-4100-AC84-8293B5F00B8A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{B551515F-028C-4260-88DF-E43DBBF400B8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FFA5B287-3068-41DC-AF95-2CCDAA63E60C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F5CAD316-8597-4438-ACF8-A12608806032}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AFB5D262-809C-4477-B95D-1E44C294ED5C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{16A99407-57CB-4146-BC2D-7D1A264E08A2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5E1A14D1-9D4C-46AA-ABD9-F94D97173A72}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E73E12FC-6CD8-41BC-87C7-8B4557D27A95}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D55F5460-C698-491B-98C5-73CB39D99A3F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CCAF070C-8663-4B7D-8470-4F09B3D428C1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B321DD49-112A-42E8-A8CB-94E8417FA774}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{BCDD5741-CC83-48C6-A23F-A8A35009D74C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{147AD7B7-8CCD-4DE9-8AAA-41EE6998E055}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{67342A13-21C5-4CDF-A7F3-377E21BB59E6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6535,7 +6535,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE84EFE1-55E6-454B-98D3-224D03A12F4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0655BBB4-64D8-44FF-9F10-5736047F7DB7}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7816,17 +7816,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2A675FFB-F23D-47C2-B558-F595C1E39AFB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8207C373-6676-487A-BB5C-9CD63E627A0D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9B30A092-87B6-41A7-99B7-A00067FF9086}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F636A9FE-DEFA-4118-8978-1A67BAAB1F5F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{34BB2CBD-44BD-4223-8BD7-D744AE3CEA91}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{91A0F126-4856-4059-B2E8-69B664FBB44E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5D868CC8-D385-4F1A-A932-6C4F296A4D4C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C4CF7A56-E490-49D5-91E9-C033458EF958}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{25E2F1A4-8CDA-490A-9313-D1B2C417C10B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{4E8586A1-7D45-42E5-A739-DD973CFDA0BE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4754AB61-B64A-4AAB-94DE-E51D85F61345}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F1AC00FD-2AC6-4AD9-8E99-F81A41FE64F7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{84B56518-DDC0-498B-86E6-6A4CDF9F64C8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6C63DA28-EBA4-4450-97A5-341BD30B2AF4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4F333445-1FD6-4F6B-BCAC-59EAEDDECC10}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9E376D19-4D39-4EB5-80E7-289564DA727A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8FD5782C-9AAB-4F2B-8B4A-F54660BCAB64}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B24FB99E-8D91-4429-ACC1-BA673E80B9F0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C0DB9780-C8AA-4C54-B00C-E7A27A6F87F8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{3E640909-B9C1-4FAA-8F23-294B8FB05F33}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{722BED7C-3A25-41FA-832A-880599E87885}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{288F341C-EBBF-463B-BFE8-097E5C2819AE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7839,7 +7839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE73ACB9-9559-43E5-A40B-526140919373}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B136809-B8D1-429C-8446-EF1EE3F0FCA2}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9120,17 +9120,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E23C31F8-EC22-49E4-9AC1-81B1CB302378}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{458A0CFB-C006-4DFD-AB53-37E26887B9F2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A7932ABE-F779-4CB1-9D2E-6541523B8138}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E60117A7-2247-4345-9E9E-7B9C134E6BDF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F88681C3-F3C4-4554-82EF-8DC347908E3B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{41F0930F-D2E9-45F1-B44E-96670B0EE81B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5453090E-9C34-4A2B-99A7-F9ED9C09560B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{91F9CE7F-630F-4682-8E6F-BC9186DCCC83}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{9424128F-8E5A-43F5-99A2-F1F2771B403F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{5BE22DCB-28F4-47DF-9A49-E5C9B81DB382}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{17F5847A-CEAC-4907-A53B-8B76B44E9028}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F7333261-D034-486A-88FA-CA28E1264EEC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2EBD63FA-2684-4B06-96A0-CF12C4341083}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{ADD9E390-09CD-4DA8-873A-4317D19B54F1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{06F5118B-AA2D-4A31-B1CF-585FBDCFC490}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{852FAB7C-0738-4C1F-8B1B-624F87FEB5A4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DAF3643E-F9EC-4A23-878B-2896DC4EB973}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{51257229-7397-48AE-81B7-8007DD4D8090}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{05EE93D4-72A4-4EBB-8D09-0DE1467DF194}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{CB59096A-D7C6-41FE-8CA1-23FA81D733AF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{385D3211-F9FA-4971-9D49-A70ABA364E99}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0C151D87-6079-4EE0-82B9-E0E9E3327648}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9143,7 +9143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ABE484B-8A84-4316-B1B1-FC66AD765892}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E047A5E-C813-45A2-8AE2-F3ABEB691928}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10424,17 +10424,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F191A693-811B-4DE0-BFD6-94485F3FA7BA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{69DF4F6A-8557-4C52-9178-9FE2E1991085}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E75F8DB1-4C48-40A8-8255-E03322BCBA30}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5AE4BC1C-94EC-4DEA-9964-DB5C3B32A248}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A491996E-89A5-40D3-9BFD-A1D4E3AD07F5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{30E72D5B-4B3C-45C5-9E83-AD9E91BE1C00}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{02AC2C0A-C405-4735-9D22-5F6FD466D17C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{88B96F4C-D175-4591-88EB-8DEF069E60E1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{EE541B39-F29C-4989-A4F8-5A608DAABDB1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{EB1FE3B0-64F0-4A23-8932-CFAC3C34E910}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C184A63D-8F1F-4D51-B0D8-681F9166A36C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{99CDEA11-439A-4353-ABE7-952C81BEBF11}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D0AD6681-3C6C-43A8-B24A-011B468D0D7D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{00A39221-274F-4F97-8892-15396FBD375A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0BE33507-181C-4202-AF47-AC872583CF8B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A5506515-F619-47D2-9688-5951909ED72E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AAC04D83-CC09-4344-95A6-84ABF6A2FF26}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6E0BFF16-3EFE-4D8A-9B10-E4EF850CE1A9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D4647B64-C78F-4E71-A7A3-92337CC947EC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C9B2B80B-F840-4657-B73E-ED169052226A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{12C1D504-1378-49AC-A280-8F458041FC2C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{52C0C093-C37A-42E6-8E26-2698F91C11D9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10447,7 +10447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58EDFA88-12FA-4C89-8EA7-019895244B24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D97584BF-6D9D-4F05-9BCC-5BD8A4101E4F}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11728,17 +11728,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{318AFF49-165C-4E78-8EBF-5E14FEFE74E7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EBD2C341-BE3B-43C4-B18D-0DF3CAC7B2DF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8865A4BB-8B4A-4887-BB9C-4FE50C261006}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{53E83CAC-5C82-4705-AB80-DED6E1D4D56A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CB54BF93-D68B-4769-98ED-A290A9A83FE4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0089DEB3-74E5-4C2E-9BB0-300D8D208891}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{044822DE-D54D-4726-BF0E-66EB07E610AC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A4D46042-AD81-4451-9415-666D19AC0B24}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{5CFEE8BF-F1FA-4CAD-85C4-DF9E2D7256E0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{198ED606-84C4-4636-AADB-EE93E50AB3B1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AD6E6DC8-F8A7-4F02-BAB2-45FFE263599C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6D40B30B-3165-4D23-9E08-E8662AF77D30}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5756467A-289B-4EB3-B6E7-2A721E4C3860}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7D1F5AE5-3ED0-42C8-AEBE-69C394BE0879}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F0091D1B-2E21-4646-B15F-A8EACE362BD8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{732C7084-9F88-48FE-8264-8D94E19BBFD4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9E1D704D-A57D-4A52-A8A4-EC9D1E887FD4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9848AAA7-4031-40DF-9144-814B34F6CDE7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{689B2BE8-5F89-42E0-A3A9-434249A861CD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{5B0925EB-6C46-46D8-B981-8914BB9CB2F5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{4D1D733C-66F2-4DE6-87F8-2B8F11521AC3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0D827155-BC00-4EE0-8729-34BEDC0520B6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11751,7 +11751,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07EE66FD-9C8B-482A-91C4-B1BA1E5C9451}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9176EDAE-0638-4305-89E5-635E0574C8E5}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13032,17 +13032,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3DC40ACB-E448-47B5-A089-BB05C1D3EA61}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{67FF1459-3DA4-4AE1-8181-05A54ED6364D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{55AB8834-E0AB-4C07-917E-D818F48F4C49}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C2FE735B-B0F1-467F-94F4-DB0882191C1E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8C2382DA-0459-46A5-B329-D1A12C0B63FE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{00D03843-C920-45D4-9615-210DCCB412F4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{426D03BA-4D91-4972-949A-ACCBE3ADABC9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5C16539E-A025-4E35-ADEB-960E1AE43386}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{B1ADC62E-896D-4DF3-9B7F-1A35DFA55DD4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{852A179F-86D8-45F8-937A-2691DD8BC22E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{277354C4-B48F-4D3D-B167-72EC16C82640}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7DAF16F1-5DA4-4196-A176-B73C1402860E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CF235E77-F39C-4124-92A5-BA28D0914799}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CCD30A21-66E9-4DBA-864C-ECD1F7355800}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{02E25779-7DBE-4C91-969F-E18538AAC73D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6D8234DF-4964-4D59-AEEB-97DBAB6A238F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{39531010-E047-413D-A123-B38C55D5CD65}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F27D9952-CC52-4674-A9CB-EC1070F449E6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7E9EF2D1-2FBE-4E19-AD62-542A7A99133A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E85EB0C4-4B86-47C8-934F-CC803C1F2024}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{B326F649-136C-4DC6-B494-B256025F01FD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E23A49EC-883F-4F07-B92C-540534E8AD0A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13055,7 +13055,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4196C6A-2A36-43E3-9B18-9E33F904D8E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B579DDAB-65D8-4397-B499-3EE1F9B69F78}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14336,17 +14336,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3ED3D969-C9E2-42CA-8E5A-40FB65145963}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{045E74A6-FFBB-40E9-90D6-595812F8E342}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4874A85A-C3D4-4BBC-8510-0906AD1F03D9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DCA648BF-C4A7-4203-96EA-7CD48CB01F6E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{36C7E750-B1FB-4C1C-BE70-555C761C0253}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E9C1F784-0301-47BA-9B6B-E7BB1EF3D36A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BC34E90E-E546-470A-A972-3DFC711FC460}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B077C2E8-FC85-4DF9-8C06-BCC407E24FCE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{3C26E18B-CE12-4564-B956-0B8D8B238586}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{0CE9A5E6-229B-4797-80A1-B1D7DD207A43}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9E670FAE-3025-45FC-B5AC-13E23C27638D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B7A3AD4F-303E-4604-886E-60B87546CAB2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AAAA8BF2-AD87-4A86-9AA8-20ABCF97A746}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2E15B836-B3EB-4ABA-BB52-AE1F564822F5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{209CA15B-331B-446F-8240-028DE7EEBA1F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{725A66A2-EC04-43A5-AD63-EE7535834194}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{47580980-D027-442E-90D3-7BBA2A838803}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7F2BFFBC-91C6-45B4-AD2B-AC56C9A4A794}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C7E52B04-7041-497C-933D-E6250CF16A74}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C23370A7-7014-4274-AAEB-572094F80F4C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F8861842-BEEA-4113-B6C1-C47B1AD7AD68}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CF67DEDF-DD43-438C-BB25-033AE8797734}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14359,7 +14359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D74160AD-6A41-42DD-8728-016D54ED8E07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A054AEE-3681-4D6A-B2EB-60911A3EAEB6}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15640,17 +15640,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A00C603E-5273-4A64-9AEC-F882C18001C4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9299D5E7-BC06-4CC8-B41B-B7201F3FD232}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0E7DB117-0462-4D8B-ADF8-A37D8DC7C31D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{89044D58-E74F-4ACF-AC29-B4F0BABEA2BF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9AE41C6A-047C-41EA-8E2D-296AAB758F35}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0FB2BE9E-77D4-430B-8D99-1531B0C2DAD4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{ADB80377-7907-4645-B656-FC69F555E12B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F7CA0953-8785-4989-A1E5-36F345300DE2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{6E950EE0-DC27-4B58-92F2-D40D3ABD703F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{826B7C7E-DD33-40C9-9348-384EF4FC008E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5264AC2D-07C6-4EAA-AA1C-528AF379DF71}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4774CB83-CC6E-4720-9455-B0D7182F7CB2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EF2CC5BD-2B3C-46EE-8E83-B2AFD650CAE4}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{95A2155F-F9F9-4536-A410-8451EF13E975}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2122069D-EEAF-4564-B761-40505C608A39}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DC5D305F-C81B-4C7F-AABB-823A91497940}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DC6487CE-9786-4CAB-8FF9-C96C3CFA4B91}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{66B394F0-DF49-4CBB-B6C5-DC283C241755}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4E78CBFD-6E24-4678-90C0-F6E054974F16}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{B598A63B-B5A2-47A7-AA5F-26AC17781374}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{B6583BB7-BBC9-4752-9E97-223BAF4F7140}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3722DEFA-43A1-401C-88E9-62CB05BE58AF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15663,7 +15663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42DCDD39-9E11-4268-9BF0-190735B77B33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C2E6B4-49A7-4A5F-B664-9D449018E2A8}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16944,17 +16944,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{19C87DC8-D1D7-452E-B987-D0FF82430DD8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DB221329-E48C-479B-AE25-E1E85744D63A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0B9F0AB2-C5EB-461C-8BAC-320940FCD746}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CB28B8D5-6018-428B-B36B-5D437E1EF70B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{125464E0-F19F-4AD9-AA10-F9B53D7158C6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6710A6CA-8CCE-4B24-916A-C2D01474DBFD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A2C5C0B0-037E-46C4-AC14-635A771183FE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6FC65105-1A5E-43EF-859C-875E0A3E1229}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{1E991929-43BC-4506-803D-DB0179D2E991}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{7E48315B-8518-4889-B00B-A029F975C868}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F5FA1EF2-9749-4A49-92AD-DE8D04E84271}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{060F474A-8372-4B5C-AC97-3C40CFC320D9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{68B30995-75F1-4613-ADF4-E0DBB4E8C24F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{784A73DC-78C8-4578-968E-6D0F4B8A8D51}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AD2DA5DD-4022-4E50-97C6-9AD59E1AB92C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{960C2900-CC5B-42A0-A15F-1AD987B527C4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{33B518A1-9835-4C0C-B198-5CFCEEC2F5CF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BCDE9191-9DD0-4D84-A052-EC2C754A3FC1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6B14D90B-CDBA-4DB3-9776-D02272D1E8FA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{BA0CB849-9F78-4043-BF79-060BDEAFD1F2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{CB3138CD-8172-4471-9C07-B843C41C81B2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DEC9DFE9-FEB9-4C71-8D3C-DE6929B1AE3B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
